--- a/data/excel files/out/statusReference.xlsx
+++ b/data/excel files/out/statusReference.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="PARADE STATE CATEGORIES" sheetId="1" r:id="rId1"/>
-    <sheet name="MORE DOMINANT STATUS" sheetId="2" r:id="rId2"/>
-    <sheet name="DEFINITE STATUS" sheetId="3" r:id="rId3"/>
-    <sheet name="INDEFINITE STATUS" sheetId="4" r:id="rId4"/>
+    <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
+    <sheet name="PARADE STATE CATEGORIES" sheetId="2" r:id="rId2"/>
+    <sheet name="MORE DOMINANT STATUS" sheetId="3" r:id="rId3"/>
+    <sheet name="DEFINITE STATUS" sheetId="4" r:id="rId4"/>
+    <sheet name="INDEFINITE STATUS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -279,6 +280,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="status_edit_instructions.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7562850" cy="10696575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,9 +610,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -670,7 +727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -746,7 +803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -1325,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/data/excel files/out/statusReference.xlsx
+++ b/data/excel files/out/statusReference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
   <si>
     <t>-</t>
   </si>
@@ -110,6 +110,9 @@
     <t>COC</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>CMD</t>
+  </si>
+  <si>
+    <t>RDPC</t>
   </si>
   <si>
     <t>CPC</t>
@@ -805,7 +811,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,10 +937,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -950,18 +956,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -978,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -986,10 +992,10 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1140,7 +1146,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1151,7 +1157,7 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1209,7 +1215,7 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1258,122 +1264,144 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1422,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1430,16 +1458,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/data/excel files/out/statusReference.xlsx
+++ b/data/excel files/out/statusReference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>-</t>
   </si>
@@ -140,67 +140,70 @@
     <t>U/S</t>
   </si>
   <si>
+    <t>SITE ESCORT</t>
+  </si>
+  <si>
+    <t>RSAF55</t>
+  </si>
+  <si>
+    <t>DSO TRAINING</t>
+  </si>
+  <si>
+    <t>NDP</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>ATP IMT</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>O/S ME</t>
+  </si>
+  <si>
+    <t>202 SQN AUDIT</t>
+  </si>
+  <si>
+    <t>SITE FAM</t>
+  </si>
+  <si>
+    <t>CONVOY</t>
+  </si>
+  <si>
+    <t>CS IMT</t>
+  </si>
+  <si>
+    <t>GTT</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>RIGGER</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>OEMP</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>RDPC</t>
+  </si>
+  <si>
     <t>ESCORT</t>
-  </si>
-  <si>
-    <t>RSAF55</t>
-  </si>
-  <si>
-    <t>DSO TRAINING</t>
-  </si>
-  <si>
-    <t>NDP</t>
-  </si>
-  <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>ATP IMT</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>O/S ME</t>
-  </si>
-  <si>
-    <t>202 SQN AUDIT</t>
-  </si>
-  <si>
-    <t>SITE FAM</t>
-  </si>
-  <si>
-    <t>CONVOY</t>
-  </si>
-  <si>
-    <t>CS IMT</t>
-  </si>
-  <si>
-    <t>GTT</t>
-  </si>
-  <si>
-    <t>SIC</t>
-  </si>
-  <si>
-    <t>RIGGER</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>OEMP</t>
-  </si>
-  <si>
-    <t>CMD</t>
-  </si>
-  <si>
-    <t>RDPC</t>
   </si>
   <si>
     <t>CPC</t>
@@ -1058,7 +1061,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1450,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1458,16 +1461,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/data/excel files/out/statusReference.xlsx
+++ b/data/excel files/out/statusReference.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>-</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>AI</t>
+  </si>
+  <si>
+    <t>CAMP</t>
   </si>
   <si>
     <t>X</t>
@@ -814,7 +817,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -970,18 +973,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -998,7 +1001,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1006,10 +1009,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1061,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1072,7 +1075,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1160,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1171,7 +1174,7 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1229,7 +1232,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1289,122 +1292,133 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1453,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1461,16 +1475,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
